--- a/test/fixtures/files/datatypes.xlsx
+++ b/test/fixtures/files/datatypes.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ben/oneis/khq/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7304138-6B63-AD40-8ADB-A0955447573D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE86C62-603C-904B-A76E-31D94126F9D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21240" yWindow="6580" windowWidth="28040" windowHeight="17440" xr2:uid="{E7FC6F8E-663D-1A4D-9C48-901188EAB5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Another sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Hidden sheet" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Another sheet" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>String</t>
   </si>
@@ -59,6 +63,9 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>This is hidden</t>
   </si>
 </sst>
 </file>
@@ -486,6 +493,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D909967-9AD9-2F40-A504-63432BDBD7FC}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8D14C0-1FC6-1245-8021-8894050E201C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
